--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Fall.121919.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Rossi.Fall.121919.xlsx_with_dialog_acts.xlsx
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2297,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2381,12 +2381,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2511,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2805,12 +2805,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3103,12 +3103,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3145,12 +3145,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4027,12 +4027,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4787,12 +4787,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4829,12 +4829,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4913,12 +4913,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5295,12 +5295,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5337,12 +5337,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6017,12 +6017,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6227,12 +6227,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6269,12 +6269,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6311,12 +6311,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7239,12 +7239,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7533,12 +7533,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7869,12 +7869,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8079,12 +8079,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8461,12 +8461,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
